--- a/MainTop/23.11.2024/печать.xlsx
+++ b/MainTop/23.11.2024/печать.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="165">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -484,9 +484,6 @@
     <t xml:space="preserve">Термонаклейка Мишка красная гоночная машина</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Формы термозаплатка</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Минни Маус Единорог розовый</t>
   </si>
   <si>
@@ -518,24 +515,6 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Динозавр в очках ест бургер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка репер читает с микрофоном</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка байкер мотоцикл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка стоит с скейтом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Дисней утка Дейзи и Минни сидят</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка Терминатор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Звезды Черные термозаплатка</t>
   </si>
 </sst>
 </file>
@@ -636,10 +615,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="2:38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4800,7 +4779,7 @@
         <v>154</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>6</v>
@@ -4812,7 +4791,7 @@
         <v>13</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G144" s="0" t="n">
         <v>1046</v>
@@ -4832,7 +4811,7 @@
         <v>0.1</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>0</v>
@@ -4861,7 +4840,7 @@
         <v>0.1</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>0</v>
@@ -4890,7 +4869,7 @@
         <v>0.1</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>0</v>
@@ -4919,7 +4898,7 @@
         <v>0.1</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>0</v>
@@ -4948,7 +4927,7 @@
         <v>0.1</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>0</v>
@@ -4977,7 +4956,7 @@
         <v>0.1</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>0</v>
@@ -5006,7 +4985,7 @@
         <v>0.1</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>0</v>
@@ -5035,7 +5014,7 @@
         <v>0.1</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>0</v>
@@ -5064,7 +5043,7 @@
         <v>0.1</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>0</v>
@@ -5093,7 +5072,7 @@
         <v>0.1</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>0</v>
@@ -5114,209 +5093,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B155" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C155" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D155" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F155" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G155" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H155" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I155" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B156" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C156" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D156" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F156" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H156" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I156" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B157" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C157" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D157" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F157" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G157" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H157" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I157" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B158" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C158" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D158" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F158" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H158" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I158" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B159" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C159" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D159" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F159" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H159" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I159" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B160" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C160" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D160" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F160" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G160" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H160" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I160" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B161" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C161" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D161" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F161" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H161" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I161" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/MainTop/23.11.2024/печать.xlsx
+++ b/MainTop/23.11.2024/печать.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="170">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -49,6 +49,24 @@
     <t xml:space="preserve">Тип упорядочить</t>
   </si>
   <si>
+    <t xml:space="preserve">1 москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 питер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 казах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 юг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 урал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 поволхье</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Черный Кот Звезды Астрология</t>
   </si>
   <si>
@@ -377,9 +395,6 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Черный Кот в цветах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Попугаи 2шт зеленый и желтый</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка Волосы Бабочки</t>
@@ -615,10 +630,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -655,10 +670,28 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.1</v>
@@ -682,12 +715,26 @@
         <v>2</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">H2-SUM(J2:O2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">N2-O2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.1</v>
@@ -711,12 +758,26 @@
         <v>2</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">H3-SUM(J3:O3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">N3-O3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3.4</v>
@@ -740,12 +801,38 @@
         <v>30</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">H4-SUM(J4:O4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">N4-O4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2.9</v>
@@ -769,12 +856,38 @@
         <v>30</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">H5-SUM(J5:O5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">N5-O5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.4</v>
@@ -798,12 +911,38 @@
         <v>30</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">H6-SUM(J6:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">N6-O6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2.3</v>
@@ -827,12 +966,38 @@
         <v>28</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">H7-SUM(J7:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">N7-O7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2</v>
@@ -856,12 +1021,38 @@
         <v>24</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">H8-SUM(J8:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">N8-O8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1.9</v>
@@ -885,12 +1076,38 @@
         <v>24</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">H9-SUM(J9:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">N9-O9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1.7</v>
@@ -914,12 +1131,38 @@
         <v>22</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">H10-SUM(J10:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">N10-O10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1.2</v>
@@ -943,12 +1186,38 @@
         <v>14</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">H11-SUM(J11:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">N11-O11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1.2</v>
@@ -972,12 +1241,38 @@
         <v>14</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">H12-SUM(J12:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">N12-O12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1.2</v>
@@ -1001,12 +1296,38 @@
         <v>14</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">H13-SUM(J13:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">N13-O13</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1.2</v>
@@ -1030,12 +1351,38 @@
         <v>14</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">H14-SUM(J14:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">N14-O14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.9</v>
@@ -1059,12 +1406,38 @@
         <v>12</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">H15-SUM(J15:O15)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">N15-O15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.9</v>
@@ -1088,12 +1461,38 @@
         <v>12</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">H16-SUM(J16:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">N16-O16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.7</v>
@@ -1117,12 +1516,38 @@
         <v>10</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">H17-SUM(J17:O17)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <f aca="false">N17-O17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.7</v>
@@ -1146,12 +1571,38 @@
         <v>12</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">H18-SUM(J18:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <f aca="false">N18-O18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.6</v>
@@ -1175,12 +1626,38 @@
         <v>8</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">H19-SUM(J19:O19)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <f aca="false">N19-O19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.6</v>
@@ -1204,12 +1681,38 @@
         <v>12</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">H20-SUM(J20:O20)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">N20-O20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.5</v>
@@ -1233,12 +1736,38 @@
         <v>6</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">H21-SUM(J21:O21)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">N21-O21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.5</v>
@@ -1262,12 +1791,38 @@
         <v>6</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <f aca="false">H22-SUM(J22:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <f aca="false">N22-O22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.5</v>
@@ -1291,12 +1846,38 @@
         <v>6</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">H23-SUM(J23:O23)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">N23-O23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.5</v>
@@ -1320,12 +1901,38 @@
         <v>6</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <f aca="false">H24-SUM(J24:O24)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <f aca="false">N24-O24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.5</v>
@@ -1349,12 +1956,38 @@
         <v>6</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">H25-SUM(J25:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">N25-O25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.5</v>
@@ -1378,12 +2011,38 @@
         <v>12</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">H26-SUM(J26:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <f aca="false">N26-O26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.5</v>
@@ -1407,12 +2066,38 @@
         <v>12</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <f aca="false">H27-SUM(J27:O27)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <f aca="false">N27-O27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.5</v>
@@ -1436,12 +2121,38 @@
         <v>6</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">H28-SUM(J28:O28)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <f aca="false">N28-O28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.5</v>
@@ -1465,12 +2176,38 @@
         <v>6</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <f aca="false">H29-SUM(J29:O29)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <f aca="false">N29-O29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.5</v>
@@ -1494,12 +2231,38 @@
         <v>6</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <f aca="false">H30-SUM(J30:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <f aca="false">N30-O30</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.5</v>
@@ -1523,12 +2286,38 @@
         <v>6</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">H31-SUM(J31:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <f aca="false">N31-O31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.5</v>
@@ -1552,12 +2341,38 @@
         <v>6</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <f aca="false">H32-SUM(J32:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <f aca="false">N32-O32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.5</v>
@@ -1581,12 +2396,38 @@
         <v>6</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <f aca="false">H33-SUM(J33:O33)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <f aca="false">N33-O33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.5</v>
@@ -1610,12 +2451,38 @@
         <v>6</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <f aca="false">H34-SUM(J34:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <f aca="false">N34-O34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.5</v>
@@ -1639,12 +2506,38 @@
         <v>6</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <f aca="false">H35-SUM(J35:O35)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <f aca="false">N35-O35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.5</v>
@@ -1668,12 +2561,38 @@
         <v>6</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <f aca="false">H36-SUM(J36:O36)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <f aca="false">N36-O36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.5</v>
@@ -1697,12 +2616,38 @@
         <v>6</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <f aca="false">H37-SUM(J37:O37)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <f aca="false">N37-O37</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.4</v>
@@ -1726,12 +2671,38 @@
         <v>6</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <f aca="false">H38-SUM(J38:O38)</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <f aca="false">N38-O38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.4</v>
@@ -1755,12 +2726,38 @@
         <v>6</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <f aca="false">H39-SUM(J39:O39)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <f aca="false">N39-O39</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.4</v>
@@ -1784,12 +2781,38 @@
         <v>6</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <f aca="false">H40-SUM(J40:O40)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <f aca="false">N40-O40</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.4</v>
@@ -1813,12 +2836,38 @@
         <v>6</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <f aca="false">H41-SUM(J41:O41)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <f aca="false">N41-O41</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.4</v>
@@ -1842,12 +2891,38 @@
         <v>12</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <f aca="false">H42-SUM(J42:O42)</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <f aca="false">N42-O42</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.4</v>
@@ -1871,12 +2946,38 @@
         <v>8</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <f aca="false">H43-SUM(J43:O43)</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <f aca="false">N43-O43</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.3</v>
@@ -1900,12 +3001,32 @@
         <v>4</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <f aca="false">H44-SUM(J44:O44)</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <f aca="false">N44-O44</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.3</v>
@@ -1929,12 +3050,32 @@
         <v>4</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <f aca="false">H45-SUM(J45:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <f aca="false">N45-O45</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.3</v>
@@ -1958,12 +3099,32 @@
         <v>4</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <f aca="false">H46-SUM(J46:O46)</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <f aca="false">N46-O46</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.3</v>
@@ -1987,12 +3148,32 @@
         <v>4</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <f aca="false">H47-SUM(J47:O47)</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <f aca="false">N47-O47</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.3</v>
@@ -2016,12 +3197,32 @@
         <v>4</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <f aca="false">H48-SUM(J48:O48)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <f aca="false">N48-O48</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.3</v>
@@ -2045,12 +3246,32 @@
         <v>4</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <f aca="false">H49-SUM(J49:O49)</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <f aca="false">N49-O49</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.3</v>
@@ -2074,12 +3295,32 @@
         <v>4</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <f aca="false">H50-SUM(J50:O50)</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <f aca="false">N50-O50</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.3</v>
@@ -2103,12 +3344,32 @@
         <v>4</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <f aca="false">H51-SUM(J51:O51)</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <f aca="false">N51-O51</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.3</v>
@@ -2132,12 +3393,38 @@
         <v>8</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <f aca="false">H52-SUM(J52:O52)</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <f aca="false">N52-O52</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0.2</v>
@@ -2161,12 +3448,32 @@
         <v>4</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <f aca="false">H53-SUM(J53:O53)</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <f aca="false">N53-O53</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0.2</v>
@@ -2190,12 +3497,32 @@
         <v>4</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <f aca="false">H54-SUM(J54:O54)</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <f aca="false">N54-O54</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0.2</v>
@@ -2219,12 +3546,32 @@
         <v>4</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <f aca="false">H55-SUM(J55:O55)</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <f aca="false">N55-O55</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0.2</v>
@@ -2248,12 +3595,32 @@
         <v>4</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <f aca="false">H56-SUM(J56:O56)</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <f aca="false">N56-O56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0.2</v>
@@ -2277,12 +3644,32 @@
         <v>4</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <f aca="false">H57-SUM(J57:O57)</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <f aca="false">N57-O57</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0.2</v>
@@ -2306,12 +3693,32 @@
         <v>4</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <f aca="false">H58-SUM(J58:O58)</f>
+        <v>0</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <f aca="false">N58-O58</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0.2</v>
@@ -2335,12 +3742,32 @@
         <v>4</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <f aca="false">H59-SUM(J59:O59)</f>
+        <v>0</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <f aca="false">N59-O59</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0.2</v>
@@ -2364,12 +3791,38 @@
         <v>6</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <f aca="false">H60-SUM(J60:O60)</f>
+        <v>0</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <f aca="false">N60-O60</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0.2</v>
@@ -2393,12 +3846,32 @@
         <v>4</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <f aca="false">H61-SUM(J61:O61)</f>
+        <v>0</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <f aca="false">N61-O61</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0.2</v>
@@ -2422,12 +3895,32 @@
         <v>4</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <f aca="false">H62-SUM(J62:O62)</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <f aca="false">N62-O62</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0.2</v>
@@ -2451,12 +3944,38 @@
         <v>8</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <f aca="false">H63-SUM(J63:O63)</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <f aca="false">N63-O63</f>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0.2</v>
@@ -2480,12 +3999,38 @@
         <v>6</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <f aca="false">H64-SUM(J64:O64)</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <f aca="false">N64-O64</f>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0.2</v>
@@ -2509,12 +4054,38 @@
         <v>6</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <f aca="false">H65-SUM(J65:O65)</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <f aca="false">N65-O65</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0.2</v>
@@ -2538,12 +4109,32 @@
         <v>4</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <f aca="false">H66-SUM(J66:O66)</f>
+        <v>0</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <f aca="false">N66-O66</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0.2</v>
@@ -2567,12 +4158,32 @@
         <v>4</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <f aca="false">H67-SUM(J67:O67)</f>
+        <v>0</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <f aca="false">N67-O67</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0.2</v>
@@ -2596,12 +4207,38 @@
         <v>8</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <f aca="false">H68-SUM(J68:O68)</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <f aca="false">N68-O68</f>
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0.2</v>
@@ -2625,12 +4262,38 @@
         <v>8</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <f aca="false">H69-SUM(J69:O69)</f>
+        <v>0</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <f aca="false">N69-O69</f>
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0.2</v>
@@ -2654,12 +4317,38 @@
         <v>8</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <f aca="false">H70-SUM(J70:O70)</f>
+        <v>0</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <f aca="false">N70-O70</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0.1</v>
@@ -2680,15 +4369,41 @@
         <v>1046</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <f aca="false">H71-SUM(J71:O71)</f>
+        <v>0</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <f aca="false">N71-O71</f>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0.1</v>
@@ -2709,15 +4424,41 @@
         <v>1046</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <f aca="false">H72-SUM(J72:O72)</f>
+        <v>0</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <f aca="false">N72-O72</f>
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>0</v>
@@ -2738,15 +4479,41 @@
         <v>1046</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <f aca="false">H73-SUM(J73:O73)</f>
+        <v>0</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <f aca="false">N73-O73</f>
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>0</v>
@@ -2767,15 +4534,41 @@
         <v>1046</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <f aca="false">H74-SUM(J74:O74)</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <f aca="false">N74-O74</f>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>0</v>
@@ -2796,15 +4589,41 @@
         <v>1046</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <f aca="false">H75-SUM(J75:O75)</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <f aca="false">N75-O75</f>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>0</v>
@@ -2825,15 +4644,41 @@
         <v>1046</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <f aca="false">H76-SUM(J76:O76)</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <f aca="false">N76-O76</f>
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0.2</v>
@@ -2857,12 +4702,26 @@
         <v>2</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <f aca="false">H77-SUM(J77:O77)</f>
+        <v>0</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <f aca="false">N77-O77</f>
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>0.2</v>
@@ -2886,12 +4745,26 @@
         <v>2</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <f aca="false">H78-SUM(J78:O78)</f>
+        <v>0</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <f aca="false">N78-O78</f>
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>0.2</v>
@@ -2915,12 +4788,26 @@
         <v>2</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <f aca="false">H79-SUM(J79:O79)</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <f aca="false">N79-O79</f>
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>0.2</v>
@@ -2944,12 +4831,26 @@
         <v>2</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <f aca="false">H80-SUM(J80:O80)</f>
+        <v>0</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <f aca="false">N80-O80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>0.2</v>
@@ -2973,12 +4874,26 @@
         <v>2</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <f aca="false">H81-SUM(J81:O81)</f>
+        <v>0</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <f aca="false">N81-O81</f>
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>0.2</v>
@@ -3002,12 +4917,26 @@
         <v>2</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <f aca="false">H82-SUM(J82:O82)</f>
+        <v>0</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <f aca="false">N82-O82</f>
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>0.2</v>
@@ -3031,12 +4960,26 @@
         <v>2</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <f aca="false">H83-SUM(J83:O83)</f>
+        <v>0</v>
+      </c>
+      <c r="R83" s="0" t="n">
+        <f aca="false">N83-O83</f>
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>0.2</v>
@@ -3060,12 +5003,26 @@
         <v>2</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <f aca="false">H84-SUM(J84:O84)</f>
+        <v>0</v>
+      </c>
+      <c r="R84" s="0" t="n">
+        <f aca="false">N84-O84</f>
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0.2</v>
@@ -3089,12 +5046,26 @@
         <v>2</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <f aca="false">H85-SUM(J85:O85)</f>
+        <v>0</v>
+      </c>
+      <c r="R85" s="0" t="n">
+        <f aca="false">N85-O85</f>
+        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>0.2</v>
@@ -3118,12 +5089,26 @@
         <v>2</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P86" s="0" t="n">
+        <f aca="false">H86-SUM(J86:O86)</f>
+        <v>0</v>
+      </c>
+      <c r="R86" s="0" t="n">
+        <f aca="false">N86-O86</f>
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>0.2</v>
@@ -3147,12 +5132,26 @@
         <v>2</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" s="0" t="n">
+        <f aca="false">H87-SUM(J87:O87)</f>
+        <v>0</v>
+      </c>
+      <c r="R87" s="0" t="n">
+        <f aca="false">N87-O87</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0.2</v>
@@ -3176,12 +5175,26 @@
         <v>2</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" s="0" t="n">
+        <f aca="false">H88-SUM(J88:O88)</f>
+        <v>0</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <f aca="false">N88-O88</f>
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0.2</v>
@@ -3205,12 +5218,26 @@
         <v>2</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" s="0" t="n">
+        <f aca="false">H89-SUM(J89:O89)</f>
+        <v>0</v>
+      </c>
+      <c r="R89" s="0" t="n">
+        <f aca="false">N89-O89</f>
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>0.2</v>
@@ -3234,12 +5261,26 @@
         <v>2</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <f aca="false">H90-SUM(J90:O90)</f>
+        <v>0</v>
+      </c>
+      <c r="R90" s="0" t="n">
+        <f aca="false">N90-O90</f>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>0.2</v>
@@ -3263,12 +5304,26 @@
         <v>2</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <f aca="false">H91-SUM(J91:O91)</f>
+        <v>0</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <f aca="false">N91-O91</f>
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0.1</v>
@@ -3292,12 +5347,26 @@
         <v>2</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <f aca="false">H92-SUM(J92:O92)</f>
+        <v>0</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <f aca="false">N92-O92</f>
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0.1</v>
@@ -3321,12 +5390,26 @@
         <v>2</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" s="0" t="n">
+        <f aca="false">H93-SUM(J93:O93)</f>
+        <v>0</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <f aca="false">N93-O93</f>
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>0.1</v>
@@ -3350,12 +5433,26 @@
         <v>2</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <f aca="false">H94-SUM(J94:O94)</f>
+        <v>0</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <f aca="false">N94-O94</f>
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>0.1</v>
@@ -3379,12 +5476,26 @@
         <v>2</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P95" s="0" t="n">
+        <f aca="false">H95-SUM(J95:O95)</f>
+        <v>0</v>
+      </c>
+      <c r="R95" s="0" t="n">
+        <f aca="false">N95-O95</f>
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0.1</v>
@@ -3408,12 +5519,26 @@
         <v>2</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" s="0" t="n">
+        <f aca="false">H96-SUM(J96:O96)</f>
+        <v>0</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <f aca="false">N96-O96</f>
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0.1</v>
@@ -3437,12 +5562,26 @@
         <v>2</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" s="0" t="n">
+        <f aca="false">H97-SUM(J97:O97)</f>
+        <v>0</v>
+      </c>
+      <c r="R97" s="0" t="n">
+        <f aca="false">N97-O97</f>
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0.1</v>
@@ -3466,12 +5605,26 @@
         <v>2</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" s="0" t="n">
+        <f aca="false">H98-SUM(J98:O98)</f>
+        <v>0</v>
+      </c>
+      <c r="R98" s="0" t="n">
+        <f aca="false">N98-O98</f>
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0.1</v>
@@ -3495,12 +5648,26 @@
         <v>2</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" s="0" t="n">
+        <f aca="false">H99-SUM(J99:O99)</f>
+        <v>0</v>
+      </c>
+      <c r="R99" s="0" t="n">
+        <f aca="false">N99-O99</f>
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0.1</v>
@@ -3524,12 +5691,26 @@
         <v>2</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" s="0" t="n">
+        <f aca="false">H100-SUM(J100:O100)</f>
+        <v>0</v>
+      </c>
+      <c r="R100" s="0" t="n">
+        <f aca="false">N100-O100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0.1</v>
@@ -3553,12 +5734,26 @@
         <v>2</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" s="0" t="n">
+        <f aca="false">H101-SUM(J101:O101)</f>
+        <v>0</v>
+      </c>
+      <c r="R101" s="0" t="n">
+        <f aca="false">N101-O101</f>
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0.1</v>
@@ -3582,12 +5777,26 @@
         <v>2</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" s="0" t="n">
+        <f aca="false">H102-SUM(J102:O102)</f>
+        <v>0</v>
+      </c>
+      <c r="R102" s="0" t="n">
+        <f aca="false">N102-O102</f>
+        <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0.1</v>
@@ -3611,12 +5820,26 @@
         <v>2</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" s="0" t="n">
+        <f aca="false">H103-SUM(J103:O103)</f>
+        <v>0</v>
+      </c>
+      <c r="R103" s="0" t="n">
+        <f aca="false">N103-O103</f>
+        <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0.1</v>
@@ -3640,12 +5863,26 @@
         <v>2</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" s="0" t="n">
+        <f aca="false">H104-SUM(J104:O104)</f>
+        <v>0</v>
+      </c>
+      <c r="R104" s="0" t="n">
+        <f aca="false">N104-O104</f>
+        <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0.1</v>
@@ -3669,12 +5906,26 @@
         <v>2</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" s="0" t="n">
+        <f aca="false">H105-SUM(J105:O105)</f>
+        <v>0</v>
+      </c>
+      <c r="R105" s="0" t="n">
+        <f aca="false">N105-O105</f>
+        <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0.1</v>
@@ -3698,12 +5949,26 @@
         <v>2</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <f aca="false">H106-SUM(J106:O106)</f>
+        <v>0</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <f aca="false">N106-O106</f>
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0.1</v>
@@ -3727,12 +5992,26 @@
         <v>2</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <f aca="false">H107-SUM(J107:O107)</f>
+        <v>0</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <f aca="false">N107-O107</f>
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0.1</v>
@@ -3756,12 +6035,26 @@
         <v>2</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P108" s="0" t="n">
+        <f aca="false">H108-SUM(J108:O108)</f>
+        <v>0</v>
+      </c>
+      <c r="R108" s="0" t="n">
+        <f aca="false">N108-O108</f>
+        <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0.1</v>
@@ -3782,21 +6075,41 @@
         <v>1046</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" s="0" t="n">
+        <f aca="false">H109-SUM(J109:O109)</f>
+        <v>0</v>
+      </c>
+      <c r="R109" s="0" t="n">
+        <f aca="false">N109-O109</f>
+        <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>0</v>
@@ -3814,47 +6127,87 @@
         <v>2</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" s="0" t="n">
+        <f aca="false">H110-SUM(J110:O110)</f>
+        <v>0</v>
+      </c>
+      <c r="R110" s="0" t="n">
+        <f aca="false">N110-O110</f>
+        <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C111" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>1046</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M111" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N111" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D111" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F111" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H111" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>13</v>
+      <c r="O111" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P111" s="0" t="n">
+        <f aca="false">H111-SUM(J111:O111)</f>
+        <v>0</v>
+      </c>
+      <c r="R111" s="0" t="n">
+        <f aca="false">N111-O111</f>
+        <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>0</v>
@@ -3863,27 +6216,53 @@
         <v>13</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G112" s="0" t="n">
         <v>1046</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L112" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M112" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O112" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P112" s="0" t="n">
+        <f aca="false">H112-SUM(J112:O112)</f>
+        <v>0</v>
+      </c>
+      <c r="R112" s="0" t="n">
+        <f aca="false">N112-O112</f>
+        <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>0</v>
@@ -3892,27 +6271,53 @@
         <v>13</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>1046</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L113" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M113" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O113" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P113" s="0" t="n">
+        <f aca="false">H113-SUM(J113:O113)</f>
+        <v>0</v>
+      </c>
+      <c r="R113" s="0" t="n">
+        <f aca="false">N113-O113</f>
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>0</v>
@@ -3921,27 +6326,53 @@
         <v>13</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>1046</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M114" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O114" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P114" s="0" t="n">
+        <f aca="false">H114-SUM(J114:O114)</f>
+        <v>0</v>
+      </c>
+      <c r="R114" s="0" t="n">
+        <f aca="false">N114-O114</f>
+        <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>0</v>
@@ -3950,7 +6381,7 @@
         <v>13</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G115" s="0" t="n">
         <v>1046</v>
@@ -3959,18 +6390,44 @@
         <v>16</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M115" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P115" s="0" t="n">
+        <f aca="false">H115-SUM(J115:O115)</f>
+        <v>0</v>
+      </c>
+      <c r="R115" s="0" t="n">
+        <f aca="false">N115-O115</f>
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>0</v>
@@ -3979,56 +6436,108 @@
         <v>13</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>1046</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P116" s="0" t="n">
+        <f aca="false">H116-SUM(J116:O116)</f>
+        <v>0</v>
+      </c>
+      <c r="R116" s="0" t="n">
+        <f aca="false">N116-O116</f>
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>1046</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I117" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B117" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C117" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D117" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F117" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G117" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>122</v>
+      <c r="J117" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P117" s="0" t="n">
+        <f aca="false">H117-SUM(J117:O117)</f>
+        <v>0</v>
+      </c>
+      <c r="R117" s="0" t="n">
+        <f aca="false">N117-O117</f>
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0.6</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>0</v>
@@ -4046,18 +6555,44 @@
         <v>8</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P118" s="0" t="n">
+        <f aca="false">H118-SUM(J118:O118)</f>
+        <v>0</v>
+      </c>
+      <c r="R118" s="0" t="n">
+        <f aca="false">N118-O118</f>
+        <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>0</v>
@@ -4066,7 +6601,7 @@
         <v>13</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G119" s="0" t="n">
         <v>1046</v>
@@ -4075,27 +6610,53 @@
         <v>8</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <f aca="false">H119-SUM(J119:O119)</f>
+        <v>0</v>
+      </c>
+      <c r="R119" s="0" t="n">
+        <f aca="false">N119-O119</f>
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C120" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F120" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="D120" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F120" s="0" t="n">
-        <v>6</v>
       </c>
       <c r="G120" s="0" t="n">
         <v>1046</v>
@@ -4104,12 +6665,38 @@
         <v>8</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P120" s="0" t="n">
+        <f aca="false">H120-SUM(J120:O120)</f>
+        <v>0</v>
+      </c>
+      <c r="R120" s="0" t="n">
+        <f aca="false">N120-O120</f>
+        <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>0.4</v>
@@ -4133,18 +6720,44 @@
         <v>8</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P121" s="0" t="n">
+        <f aca="false">H121-SUM(J121:O121)</f>
+        <v>0</v>
+      </c>
+      <c r="R121" s="0" t="n">
+        <f aca="false">N121-O121</f>
+        <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>0</v>
@@ -4162,18 +6775,44 @@
         <v>8</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P122" s="0" t="n">
+        <f aca="false">H122-SUM(J122:O122)</f>
+        <v>0</v>
+      </c>
+      <c r="R122" s="0" t="n">
+        <f aca="false">N122-O122</f>
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>0</v>
@@ -4191,18 +6830,44 @@
         <v>8</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P123" s="0" t="n">
+        <f aca="false">H123-SUM(J123:O123)</f>
+        <v>0</v>
+      </c>
+      <c r="R123" s="0" t="n">
+        <f aca="false">N123-O123</f>
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>0</v>
@@ -4211,27 +6876,47 @@
         <v>13</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G124" s="0" t="n">
         <v>1046</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P124" s="0" t="n">
+        <f aca="false">H124-SUM(J124:O124)</f>
+        <v>0</v>
+      </c>
+      <c r="R124" s="0" t="n">
+        <f aca="false">N124-O124</f>
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>0</v>
@@ -4249,18 +6934,38 @@
         <v>4</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P125" s="0" t="n">
+        <f aca="false">H125-SUM(J125:O125)</f>
+        <v>0</v>
+      </c>
+      <c r="R125" s="0" t="n">
+        <f aca="false">N125-O125</f>
+        <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>0</v>
@@ -4278,18 +6983,38 @@
         <v>4</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" s="0" t="n">
+        <f aca="false">H126-SUM(J126:O126)</f>
+        <v>0</v>
+      </c>
+      <c r="R126" s="0" t="n">
+        <f aca="false">N126-O126</f>
+        <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>0</v>
@@ -4307,18 +7032,38 @@
         <v>4</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P127" s="0" t="n">
+        <f aca="false">H127-SUM(J127:O127)</f>
+        <v>0</v>
+      </c>
+      <c r="R127" s="0" t="n">
+        <f aca="false">N127-O127</f>
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>0</v>
@@ -4336,18 +7081,38 @@
         <v>4</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P128" s="0" t="n">
+        <f aca="false">H128-SUM(J128:O128)</f>
+        <v>0</v>
+      </c>
+      <c r="R128" s="0" t="n">
+        <f aca="false">N128-O128</f>
+        <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>0</v>
@@ -4356,7 +7121,7 @@
         <v>13</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G129" s="0" t="n">
         <v>1046</v>
@@ -4365,18 +7130,38 @@
         <v>4</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P129" s="0" t="n">
+        <f aca="false">H129-SUM(J129:O129)</f>
+        <v>0</v>
+      </c>
+      <c r="R129" s="0" t="n">
+        <f aca="false">N129-O129</f>
+        <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>0</v>
@@ -4394,18 +7179,38 @@
         <v>4</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P130" s="0" t="n">
+        <f aca="false">H130-SUM(J130:O130)</f>
+        <v>0</v>
+      </c>
+      <c r="R130" s="0" t="n">
+        <f aca="false">N130-O130</f>
+        <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>0</v>
@@ -4423,18 +7228,38 @@
         <v>4</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P131" s="0" t="n">
+        <f aca="false">H131-SUM(J131:O131)</f>
+        <v>0</v>
+      </c>
+      <c r="R131" s="0" t="n">
+        <f aca="false">N131-O131</f>
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>0</v>
@@ -4452,18 +7277,38 @@
         <v>4</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P132" s="0" t="n">
+        <f aca="false">H132-SUM(J132:O132)</f>
+        <v>0</v>
+      </c>
+      <c r="R132" s="0" t="n">
+        <f aca="false">N132-O132</f>
+        <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>0</v>
@@ -4481,18 +7326,38 @@
         <v>4</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P133" s="0" t="n">
+        <f aca="false">H133-SUM(J133:O133)</f>
+        <v>0</v>
+      </c>
+      <c r="R133" s="0" t="n">
+        <f aca="false">N133-O133</f>
+        <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>0</v>
@@ -4510,12 +7375,32 @@
         <v>4</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P134" s="0" t="n">
+        <f aca="false">H134-SUM(J134:O134)</f>
+        <v>0</v>
+      </c>
+      <c r="R134" s="0" t="n">
+        <f aca="false">N134-O134</f>
+        <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>0.2</v>
@@ -4539,18 +7424,38 @@
         <v>4</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P135" s="0" t="n">
+        <f aca="false">H135-SUM(J135:O135)</f>
+        <v>0</v>
+      </c>
+      <c r="R135" s="0" t="n">
+        <f aca="false">N135-O135</f>
+        <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>0</v>
@@ -4568,18 +7473,38 @@
         <v>4</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P136" s="0" t="n">
+        <f aca="false">H136-SUM(J136:O136)</f>
+        <v>0</v>
+      </c>
+      <c r="R136" s="0" t="n">
+        <f aca="false">N136-O136</f>
+        <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>0</v>
@@ -4597,18 +7522,38 @@
         <v>4</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P137" s="0" t="n">
+        <f aca="false">H137-SUM(J137:O137)</f>
+        <v>0</v>
+      </c>
+      <c r="R137" s="0" t="n">
+        <f aca="false">N137-O137</f>
+        <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>0</v>
@@ -4626,18 +7571,38 @@
         <v>4</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P138" s="0" t="n">
+        <f aca="false">H138-SUM(J138:O138)</f>
+        <v>0</v>
+      </c>
+      <c r="R138" s="0" t="n">
+        <f aca="false">N138-O138</f>
+        <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>0</v>
@@ -4655,12 +7620,32 @@
         <v>4</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P139" s="0" t="n">
+        <f aca="false">H139-SUM(J139:O139)</f>
+        <v>0</v>
+      </c>
+      <c r="R139" s="0" t="n">
+        <f aca="false">N139-O139</f>
+        <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>0.2</v>
@@ -4684,18 +7669,38 @@
         <v>4</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P140" s="0" t="n">
+        <f aca="false">H140-SUM(J140:O140)</f>
+        <v>0</v>
+      </c>
+      <c r="R140" s="0" t="n">
+        <f aca="false">N140-O140</f>
+        <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>0</v>
@@ -4713,18 +7718,38 @@
         <v>4</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P141" s="0" t="n">
+        <f aca="false">H141-SUM(J141:O141)</f>
+        <v>0</v>
+      </c>
+      <c r="R141" s="0" t="n">
+        <f aca="false">N141-O141</f>
+        <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>0</v>
@@ -4742,18 +7767,38 @@
         <v>4</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P142" s="0" t="n">
+        <f aca="false">H142-SUM(J142:O142)</f>
+        <v>0</v>
+      </c>
+      <c r="R142" s="0" t="n">
+        <f aca="false">N142-O142</f>
+        <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>0</v>
@@ -4762,7 +7807,7 @@
         <v>13</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>1046</v>
@@ -4771,18 +7816,38 @@
         <v>4</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P143" s="0" t="n">
+        <f aca="false">H143-SUM(J143:O143)</f>
+        <v>0</v>
+      </c>
+      <c r="R143" s="0" t="n">
+        <f aca="false">N143-O143</f>
+        <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>0</v>
@@ -4800,18 +7865,38 @@
         <v>4</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P144" s="0" t="n">
+        <f aca="false">H144-SUM(J144:O144)</f>
+        <v>0</v>
+      </c>
+      <c r="R144" s="0" t="n">
+        <f aca="false">N144-O144</f>
+        <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>0</v>
@@ -4829,18 +7914,38 @@
         <v>4</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P145" s="0" t="n">
+        <f aca="false">H145-SUM(J145:O145)</f>
+        <v>0</v>
+      </c>
+      <c r="R145" s="0" t="n">
+        <f aca="false">N145-O145</f>
+        <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>0</v>
@@ -4858,18 +7963,38 @@
         <v>4</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P146" s="0" t="n">
+        <f aca="false">H146-SUM(J146:O146)</f>
+        <v>0</v>
+      </c>
+      <c r="R146" s="0" t="n">
+        <f aca="false">N146-O146</f>
+        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>0</v>
@@ -4887,18 +8012,38 @@
         <v>4</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P147" s="0" t="n">
+        <f aca="false">H147-SUM(J147:O147)</f>
+        <v>0</v>
+      </c>
+      <c r="R147" s="0" t="n">
+        <f aca="false">N147-O147</f>
+        <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>0</v>
@@ -4916,18 +8061,38 @@
         <v>4</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P148" s="0" t="n">
+        <f aca="false">H148-SUM(J148:O148)</f>
+        <v>0</v>
+      </c>
+      <c r="R148" s="0" t="n">
+        <f aca="false">N148-O148</f>
+        <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>0</v>
@@ -4945,18 +8110,38 @@
         <v>4</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P149" s="0" t="n">
+        <f aca="false">H149-SUM(J149:O149)</f>
+        <v>0</v>
+      </c>
+      <c r="R149" s="0" t="n">
+        <f aca="false">N149-O149</f>
+        <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>0</v>
@@ -4974,18 +8159,38 @@
         <v>4</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P150" s="0" t="n">
+        <f aca="false">H150-SUM(J150:O150)</f>
+        <v>0</v>
+      </c>
+      <c r="R150" s="0" t="n">
+        <f aca="false">N150-O150</f>
+        <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>0</v>
@@ -5003,18 +8208,38 @@
         <v>4</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P151" s="0" t="n">
+        <f aca="false">H151-SUM(J151:O151)</f>
+        <v>0</v>
+      </c>
+      <c r="R151" s="0" t="n">
+        <f aca="false">N151-O151</f>
+        <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>0</v>
@@ -5032,18 +8257,38 @@
         <v>4</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P152" s="0" t="n">
+        <f aca="false">H152-SUM(J152:O152)</f>
+        <v>0</v>
+      </c>
+      <c r="R152" s="0" t="n">
+        <f aca="false">N152-O152</f>
+        <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>0</v>
@@ -5061,38 +8306,60 @@
         <v>4</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="J153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P153" s="0" t="n">
+        <f aca="false">H153-SUM(J153:O153)</f>
+        <v>0</v>
+      </c>
+      <c r="R153" s="0" t="n">
+        <f aca="false">N153-O153</f>
+        <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B154" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C154" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D154" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F154" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G154" s="0" t="n">
-        <v>1046</v>
-      </c>
-      <c r="H154" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I154" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
+      <c r="J154" s="0" t="n">
+        <f aca="false">SUM(J2:J153)</f>
+        <v>242</v>
+      </c>
+      <c r="K154" s="0" t="n">
+        <f aca="false">SUM(K2:K153)</f>
+        <v>242</v>
+      </c>
+      <c r="L154" s="0" t="n">
+        <f aca="false">SUM(L2:L153)</f>
+        <v>188</v>
+      </c>
+      <c r="M154" s="0" t="n">
+        <f aca="false">SUM(M2:M153)</f>
+        <v>188</v>
+      </c>
+      <c r="N154" s="0" t="n">
+        <f aca="false">SUM(N2:N153)</f>
+        <v>126</v>
+      </c>
+      <c r="O154" s="0" t="n">
+        <f aca="false">SUM(O2:O153)</f>
+        <v>126</v>
+      </c>
+      <c r="P154" s="0" t="n">
+        <f aca="false">SUM(P2:P153)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
